--- a/scrapers/scraped-data/EURILCA MASTER SERIES BÉLGICA 2023_ilca 6.xlsx
+++ b/scrapers/scraped-data/EURILCA MASTER SERIES BÉLGICA 2023_ilca 6.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
